--- a/biology/Zoologie/Hemiramphidae/Hemiramphidae.xlsx
+++ b/biology/Zoologie/Hemiramphidae/Hemiramphidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hemiramphidae (en anglais halfbeak) forment une famille de poissons actinoptérygiens de l'ordre des Beloniformes. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une famille de poissons épipélagiques très commune dans toutes les eaux chaudes du globe. Leur nom anglais « halfbeak » provient de la forme caractéristique de leur mâchoire, la mâchoire inférieure étant significativement plus longue que la supérieure. 
 Les Hemiramphidae comprennent des espèces ovovivipares et vivipares, célèbres pour pratiquer le cannibalisme intra-utérin : les premiers jeunes à éclore se nourrissent des autres œufs et même des plus jeunes qu'eux. 
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (20 avril 2014)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (20 avril 2014) :
 genre Arrhamphus Günther, 1866
 genre Chriodorus
 genre Euleptorhamphus Gill, 1859
